--- a/cp_red_npc_generator/configs/ranks.xlsx
+++ b/cp_red_npc_generator/configs/ranks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cpred\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cpred\cp_red_tools\cp_red_npc_generator\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E169C6-45EF-46FD-816A-A2AEB1488422}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCA4DDB-9708-4584-9FED-EB8F6B2F770F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>mean</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>metalgear</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
 </sst>
 </file>
@@ -595,6 +598,508 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="141388416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Money</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$167:$K$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F477-4E8C-861E-832FF28EFA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 sigma min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$167:$L$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F477-4E8C-861E-832FF28EFA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 sigma max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$167:$M$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F477-4E8C-861E-832FF28EFA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="937489759"/>
+        <c:axId val="934972319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="937489759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934972319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934972319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937489759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4698,6 +5203,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5560,6 +6105,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -9910,6 +10958,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6FC57C-8E43-4337-A85A-56E3775B967B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10176,10 +11260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="J2:U155"/>
+  <dimension ref="J2:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="AB61" sqref="AB61"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="M174" sqref="M174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10219,11 +11303,11 @@
         <v>30</v>
       </c>
       <c r="L4">
-        <f>K4-3*J4</f>
+        <f t="shared" ref="L4:L10" si="0">K4-3*J4</f>
         <v>21</v>
       </c>
       <c r="M4">
-        <f>K4+3*J4</f>
+        <f t="shared" ref="M4:M10" si="1">K4+3*J4</f>
         <v>39</v>
       </c>
     </row>
@@ -10235,11 +11319,11 @@
         <v>35</v>
       </c>
       <c r="L5">
-        <f>K5-3*J5</f>
+        <f t="shared" si="0"/>
         <v>26.9</v>
       </c>
       <c r="M5">
-        <f>K5+3*J5</f>
+        <f t="shared" si="1"/>
         <v>43.1</v>
       </c>
     </row>
@@ -10251,11 +11335,11 @@
         <v>45</v>
       </c>
       <c r="L6">
-        <f>K6-3*J6</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="M6">
-        <f>K6+3*J6</f>
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
     </row>
@@ -10267,11 +11351,11 @@
         <v>60</v>
       </c>
       <c r="L7" s="1">
-        <f>K7-3*J7</f>
+        <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
       <c r="M7" s="1">
-        <f>K7+3*J7</f>
+        <f t="shared" si="1"/>
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -10283,11 +11367,11 @@
         <v>70</v>
       </c>
       <c r="L8">
-        <f>K8-3*J8</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="M8">
-        <f>K8+3*J8</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
@@ -10299,11 +11383,11 @@
         <v>75</v>
       </c>
       <c r="L9">
-        <f>K9-3*J9</f>
+        <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
       <c r="M9">
-        <f>K9+3*J9</f>
+        <f t="shared" si="1"/>
         <v>79.5</v>
       </c>
     </row>
@@ -10315,11 +11399,11 @@
         <v>80</v>
       </c>
       <c r="L10">
-        <f>K10-3*J10</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="M10">
-        <f>K10+3*J10</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -10350,11 +11434,11 @@
         <v>35</v>
       </c>
       <c r="L22">
-        <f>K22-3*J22</f>
+        <f t="shared" ref="L22:L28" si="2">K22-3*J22</f>
         <v>26</v>
       </c>
       <c r="M22">
-        <f>K22+3*J22</f>
+        <f t="shared" ref="M22:M28" si="3">K22+3*J22</f>
         <v>44</v>
       </c>
     </row>
@@ -10366,11 +11450,11 @@
         <v>45</v>
       </c>
       <c r="L23">
-        <f>K23-3*J23</f>
+        <f t="shared" si="2"/>
         <v>36.9</v>
       </c>
       <c r="M23">
-        <f>K23+3*J23</f>
+        <f t="shared" si="3"/>
         <v>53.1</v>
       </c>
     </row>
@@ -10382,11 +11466,11 @@
         <v>60</v>
       </c>
       <c r="L24">
-        <f>K24-3*J24</f>
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="M24">
-        <f>K24+3*J24</f>
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
     </row>
@@ -10398,11 +11482,11 @@
         <v>86</v>
       </c>
       <c r="L25" s="1">
-        <f>K25-3*J25</f>
+        <f t="shared" si="2"/>
         <v>79.099999999999994</v>
       </c>
       <c r="M25" s="1">
-        <f>K25+3*J25</f>
+        <f t="shared" si="3"/>
         <v>92.9</v>
       </c>
     </row>
@@ -10414,11 +11498,11 @@
         <v>100</v>
       </c>
       <c r="L26">
-        <f>K26-3*J26</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="M26">
-        <f>K26+3*J26</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
@@ -10430,11 +11514,11 @@
         <v>110</v>
       </c>
       <c r="L27">
-        <f>K27-3*J27</f>
+        <f t="shared" si="2"/>
         <v>105.5</v>
       </c>
       <c r="M27">
-        <f>K27+3*J27</f>
+        <f t="shared" si="3"/>
         <v>114.5</v>
       </c>
     </row>
@@ -10446,11 +11530,11 @@
         <v>115</v>
       </c>
       <c r="L28">
-        <f>K28-3*J28</f>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="M28">
-        <f>K28+3*J28</f>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
     </row>
@@ -10505,11 +11589,11 @@
         <v>40</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41:L70" si="0">K41-3*J41</f>
+        <f t="shared" ref="L41:L47" si="4">K41-3*J41</f>
         <v>25</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41:M70" si="1">K41+3*J41</f>
+        <f t="shared" ref="M41:M47" si="5">K41+3*J41</f>
         <v>55</v>
       </c>
       <c r="O41" t="b">
@@ -10549,39 +11633,39 @@
         <v>100</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="O42" t="b">
-        <f t="shared" ref="O42:U47" si="2">$L42&gt;20*2</f>
+        <f t="shared" ref="O42:O47" si="6">$L42&gt;20*2</f>
         <v>1</v>
       </c>
       <c r="P42" t="b">
-        <f t="shared" ref="P42:P47" si="3">$L42&gt;50*2</f>
+        <f t="shared" ref="P42:P47" si="7">$L42&gt;50*2</f>
         <v>0</v>
       </c>
       <c r="Q42" t="b">
-        <f t="shared" ref="Q42:R47" si="4">$L42&gt;100*2</f>
+        <f t="shared" ref="Q42:R47" si="8">$L42&gt;100*2</f>
         <v>0</v>
       </c>
       <c r="R42" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S42" t="b">
-        <f t="shared" ref="S42:T47" si="5">$L42&gt;500*2</f>
+        <f t="shared" ref="S42:T47" si="9">$L42&gt;500*2</f>
         <v>0</v>
       </c>
       <c r="T42" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U42" t="b">
-        <f t="shared" ref="U42:U47" si="6">$L42&gt;5000*2</f>
+        <f t="shared" ref="U42:U47" si="10">$L42&gt;5000*2</f>
         <v>0</v>
       </c>
     </row>
@@ -10593,39 +11677,39 @@
         <v>150</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="O43" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P43" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q43" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R43" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S43" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T43" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U43" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10637,39 +11721,39 @@
         <v>250</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="O44" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P44" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q44" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R44" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S44" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T44" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U44" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10681,39 +11765,39 @@
         <v>500</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>440</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>560</v>
       </c>
       <c r="O45" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P45" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q45" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R45" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S45" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T45" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U45" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10725,39 +11809,39 @@
         <v>5100</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5097</v>
       </c>
       <c r="M46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5103</v>
       </c>
       <c r="O46" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P46" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q46" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R46" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S46" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T46" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U46" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10769,39 +11853,39 @@
         <v>10100</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10097</v>
       </c>
       <c r="M47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10103</v>
       </c>
       <c r="O47" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P47" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q47" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R47" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S47" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T47" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U47" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10848,11 +11932,11 @@
         <v>200</v>
       </c>
       <c r="L60">
-        <f t="shared" ref="L60:L65" si="7">K60-3*J60</f>
+        <f t="shared" ref="L60:L65" si="11">K60-3*J60</f>
         <v>155</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M65" si="8">K60+3*J60</f>
+        <f t="shared" ref="M60:M65" si="12">K60+3*J60</f>
         <v>245</v>
       </c>
     </row>
@@ -10864,11 +11948,11 @@
         <v>250</v>
       </c>
       <c r="L61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="M61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>340</v>
       </c>
     </row>
@@ -10880,11 +11964,11 @@
         <v>650</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>800</v>
       </c>
     </row>
@@ -10896,11 +11980,11 @@
         <v>1500</v>
       </c>
       <c r="L63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1050</v>
       </c>
       <c r="M63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1950</v>
       </c>
     </row>
@@ -10912,11 +11996,11 @@
         <v>5000</v>
       </c>
       <c r="L64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3800</v>
       </c>
       <c r="M64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6200</v>
       </c>
     </row>
@@ -10928,11 +12012,11 @@
         <v>10000</v>
       </c>
       <c r="L65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7900</v>
       </c>
       <c r="M65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12100</v>
       </c>
     </row>
@@ -10979,11 +12063,11 @@
         <v>200</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L83" si="9">K78-3*J78</f>
+        <f t="shared" ref="L78:L83" si="13">K78-3*J78</f>
         <v>140</v>
       </c>
       <c r="M78">
-        <f t="shared" ref="M78:M83" si="10">K78+3*J78</f>
+        <f t="shared" ref="M78:M83" si="14">K78+3*J78</f>
         <v>260</v>
       </c>
     </row>
@@ -10995,11 +12079,11 @@
         <v>500</v>
       </c>
       <c r="L79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>350</v>
       </c>
       <c r="M79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>650</v>
       </c>
     </row>
@@ -11011,11 +12095,11 @@
         <v>1000</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>700</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1300</v>
       </c>
     </row>
@@ -11027,11 +12111,11 @@
         <v>2000</v>
       </c>
       <c r="L81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1400</v>
       </c>
       <c r="M81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2600</v>
       </c>
     </row>
@@ -11043,11 +12127,11 @@
         <v>5000</v>
       </c>
       <c r="L82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
       <c r="M82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8000</v>
       </c>
     </row>
@@ -11059,11 +12143,11 @@
         <v>30000</v>
       </c>
       <c r="L83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>21000</v>
       </c>
       <c r="M83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>39000</v>
       </c>
     </row>
@@ -11110,11 +12194,11 @@
         <v>80</v>
       </c>
       <c r="L96">
-        <f t="shared" ref="L96:L101" si="11">K96-3*J96</f>
+        <f t="shared" ref="L96:L101" si="15">K96-3*J96</f>
         <v>50</v>
       </c>
       <c r="M96">
-        <f t="shared" ref="M96:M101" si="12">K96+3*J96</f>
+        <f t="shared" ref="M96:M101" si="16">K96+3*J96</f>
         <v>110</v>
       </c>
     </row>
@@ -11126,11 +12210,11 @@
         <v>120</v>
       </c>
       <c r="L97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="M97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
     </row>
@@ -11142,11 +12226,11 @@
         <v>160</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>115</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>205</v>
       </c>
     </row>
@@ -11158,11 +12242,11 @@
         <v>200</v>
       </c>
       <c r="L99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>155</v>
       </c>
       <c r="M99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>245</v>
       </c>
     </row>
@@ -11174,11 +12258,11 @@
         <v>300</v>
       </c>
       <c r="L100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>240</v>
       </c>
       <c r="M100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>360</v>
       </c>
     </row>
@@ -11190,11 +12274,11 @@
         <v>500</v>
       </c>
       <c r="L101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="M101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>590</v>
       </c>
     </row>
@@ -11241,11 +12325,11 @@
         <v>50</v>
       </c>
       <c r="L114">
-        <f t="shared" ref="L114:L119" si="13">K114-3*J114</f>
+        <f t="shared" ref="L114:L119" si="17">K114-3*J114</f>
         <v>35</v>
       </c>
       <c r="M114">
-        <f t="shared" ref="M114:M119" si="14">K114+3*J114</f>
+        <f t="shared" ref="M114:M119" si="18">K114+3*J114</f>
         <v>65</v>
       </c>
     </row>
@@ -11257,11 +12341,11 @@
         <v>100</v>
       </c>
       <c r="L115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="M115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>130</v>
       </c>
     </row>
@@ -11273,11 +12357,11 @@
         <v>200</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>260</v>
       </c>
     </row>
@@ -11289,11 +12373,11 @@
         <v>500</v>
       </c>
       <c r="L117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>350</v>
       </c>
       <c r="M117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>650</v>
       </c>
     </row>
@@ -11305,11 +12389,11 @@
         <v>800</v>
       </c>
       <c r="L118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>560</v>
       </c>
       <c r="M118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1040</v>
       </c>
     </row>
@@ -11321,11 +12405,11 @@
         <v>1500</v>
       </c>
       <c r="L119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1050</v>
       </c>
       <c r="M119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1950</v>
       </c>
     </row>
@@ -11372,11 +12456,11 @@
         <v>40</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L137" si="15">K132-3*J132</f>
+        <f t="shared" ref="L132:L137" si="19">K132-3*J132</f>
         <v>25</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132:M137" si="16">K132+3*J132</f>
+        <f t="shared" ref="M132:M137" si="20">K132+3*J132</f>
         <v>55</v>
       </c>
     </row>
@@ -11388,11 +12472,11 @@
         <v>60</v>
       </c>
       <c r="L133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="M133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>78</v>
       </c>
     </row>
@@ -11404,11 +12488,11 @@
         <v>100</v>
       </c>
       <c r="L134" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>130</v>
       </c>
     </row>
@@ -11420,11 +12504,11 @@
         <v>200</v>
       </c>
       <c r="L135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="M135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>260</v>
       </c>
     </row>
@@ -11436,11 +12520,11 @@
         <v>500</v>
       </c>
       <c r="L136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>410</v>
       </c>
       <c r="M136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>590</v>
       </c>
     </row>
@@ -11452,11 +12536,11 @@
         <v>1000</v>
       </c>
       <c r="L137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>850</v>
       </c>
       <c r="M137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1150</v>
       </c>
     </row>
@@ -11503,11 +12587,11 @@
         <v>50</v>
       </c>
       <c r="L150">
-        <f t="shared" ref="L150:L155" si="17">K150-3*J150</f>
+        <f t="shared" ref="L150:L155" si="21">K150-3*J150</f>
         <v>29</v>
       </c>
       <c r="M150">
-        <f t="shared" ref="M150:M155" si="18">K150+3*J150</f>
+        <f t="shared" ref="M150:M155" si="22">K150+3*J150</f>
         <v>71</v>
       </c>
     </row>
@@ -11519,11 +12603,11 @@
         <v>100</v>
       </c>
       <c r="L151">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
       <c r="M151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>130</v>
       </c>
     </row>
@@ -11535,11 +12619,11 @@
         <v>200</v>
       </c>
       <c r="L152" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
       <c r="M152" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>260</v>
       </c>
     </row>
@@ -11551,11 +12635,11 @@
         <v>500</v>
       </c>
       <c r="L153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>350</v>
       </c>
       <c r="M153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>650</v>
       </c>
     </row>
@@ -11567,11 +12651,11 @@
         <v>800</v>
       </c>
       <c r="L154">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>560</v>
       </c>
       <c r="M154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1040</v>
       </c>
     </row>
@@ -11583,12 +12667,143 @@
         <v>1500</v>
       </c>
       <c r="L155">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1050</v>
       </c>
       <c r="M155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1950</v>
+      </c>
+    </row>
+    <row r="165" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>4</v>
+      </c>
+      <c r="M166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <v>5</v>
+      </c>
+      <c r="K167">
+        <v>50</v>
+      </c>
+      <c r="L167">
+        <f>K167-3*J167</f>
+        <v>35</v>
+      </c>
+      <c r="M167">
+        <f>K167+3*J167</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <v>10</v>
+      </c>
+      <c r="K168">
+        <v>100</v>
+      </c>
+      <c r="L168">
+        <f t="shared" ref="L168:L173" si="23">K168-3*J168</f>
+        <v>70</v>
+      </c>
+      <c r="M168">
+        <f t="shared" ref="M168:M173" si="24">K168+3*J168</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <v>25</v>
+      </c>
+      <c r="K169">
+        <v>250</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="23"/>
+        <v>175</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="24"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J170" s="1">
+        <v>50</v>
+      </c>
+      <c r="K170" s="1">
+        <v>500</v>
+      </c>
+      <c r="L170" s="1">
+        <f t="shared" si="23"/>
+        <v>350</v>
+      </c>
+      <c r="M170" s="1">
+        <f t="shared" si="24"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="171" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <v>70</v>
+      </c>
+      <c r="K171">
+        <v>700</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="23"/>
+        <v>490</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="24"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="172" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <v>120</v>
+      </c>
+      <c r="K172">
+        <v>1200</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="23"/>
+        <v>840</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="24"/>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="173" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J173">
+        <v>250</v>
+      </c>
+      <c r="K173">
+        <v>2500</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="23"/>
+        <v>1750</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="24"/>
+        <v>3250</v>
       </c>
     </row>
   </sheetData>

--- a/cp_red_npc_generator/configs/ranks.xlsx
+++ b/cp_red_npc_generator/configs/ranks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cpred\cp_red_tools\cp_red_npc_generator\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCA4DDB-9708-4584-9FED-EB8F6B2F770F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8FDE7-4C2B-4E4B-B084-4DE106D4A8A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11262,8 +11262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J2:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="M174" sqref="M174"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
